--- a/apartmentManage/Data/residents.xlsx
+++ b/apartmentManage/Data/residents.xlsx
@@ -12,72 +12,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>resident_id</t>
   </si>
   <si>
+    <t>apartment_id</t>
+  </si>
+  <si>
     <t>user_id</t>
   </si>
   <si>
     <t>full_name</t>
   </si>
   <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>phoneNum</t>
+  </si>
+  <si>
+    <t>id_card</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
-    <t>phoneNum</t>
-  </si>
-  <si>
-    <t>id_card</t>
-  </si>
-  <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>apartment_id</t>
+    <t>201</t>
+  </si>
+  <si>
+    <t>102</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Trần Chí Nguyên</t>
-  </si>
-  <si>
-    <t>a@gmail.com</t>
-  </si>
-  <si>
-    <t>0829907738</t>
-  </si>
-  <si>
-    <t>054205010738</t>
-  </si>
-  <si>
-    <t>2005-11-08</t>
+    <t>Nguyễn Văn A</t>
   </si>
   <si>
     <t>Nam</t>
   </si>
   <si>
+    <t>1990-05-15</t>
+  </si>
+  <si>
+    <t>0987111222</t>
+  </si>
+  <si>
+    <t>123456789012</t>
+  </si>
+  <si>
+    <t>nguyenvana@example.com</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>Phạm Minh Nhật</t>
-  </si>
-  <si>
-    <t>b@gmail.com</t>
-  </si>
-  <si>
-    <t>0123456787</t>
-  </si>
-  <si>
-    <t>012254362578</t>
-  </si>
-  <si>
-    <t>2005-08-08</t>
+    <t>Trần Thị B</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>1985-07-20</t>
+  </si>
+  <si>
+    <t>0987111333</t>
+  </si>
+  <si>
+    <t>234567890123</t>
+  </si>
+  <si>
+    <t>tranthib@example.com</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Lê Văn C</t>
+  </si>
+  <si>
+    <t>1992-11-30</t>
+  </si>
+  <si>
+    <t>0987111777</t>
+  </si>
+  <si>
+    <t>345678901234</t>
+  </si>
+  <si>
+    <t>levanc@example.com</t>
   </si>
 </sst>
 </file>
@@ -122,7 +161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -162,57 +201,86 @@
         <v>9</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>9</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
